--- a/APM files/139675497/139675497 IMPORT 5 EPC Users.xlsx
+++ b/APM files/139675497/139675497 IMPORT 5 EPC Users.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darkesthj/dev/workspace/APM files/138531860/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darkesthj/dev/workspace/APM files/139675497/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E03FADA-9233-AC44-9C2F-B3B034F335C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB2DD1E-5832-AA44-A0D6-FEEBA721C778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="27040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1893" uniqueCount="369">
   <si>
     <t>Hotel ID</t>
   </si>
@@ -391,6 +391,756 @@
   </si>
   <si>
     <t>115054004</t>
+  </si>
+  <si>
+    <t>116350922</t>
+  </si>
+  <si>
+    <t>116350928</t>
+  </si>
+  <si>
+    <t>116350929</t>
+  </si>
+  <si>
+    <t>116350930</t>
+  </si>
+  <si>
+    <t>116350934</t>
+  </si>
+  <si>
+    <t>116350935</t>
+  </si>
+  <si>
+    <t>116350936</t>
+  </si>
+  <si>
+    <t>116350939</t>
+  </si>
+  <si>
+    <t>116350940</t>
+  </si>
+  <si>
+    <t>116350943</t>
+  </si>
+  <si>
+    <t>116350944</t>
+  </si>
+  <si>
+    <t>116350946</t>
+  </si>
+  <si>
+    <t>116350948</t>
+  </si>
+  <si>
+    <t>116350949</t>
+  </si>
+  <si>
+    <t>116350950</t>
+  </si>
+  <si>
+    <t>116350953</t>
+  </si>
+  <si>
+    <t>116350955</t>
+  </si>
+  <si>
+    <t>116350956</t>
+  </si>
+  <si>
+    <t>116350957</t>
+  </si>
+  <si>
+    <t>116350958</t>
+  </si>
+  <si>
+    <t>116350960</t>
+  </si>
+  <si>
+    <t>116350963</t>
+  </si>
+  <si>
+    <t>116350964</t>
+  </si>
+  <si>
+    <t>116350966</t>
+  </si>
+  <si>
+    <t>116350967</t>
+  </si>
+  <si>
+    <t>116350968</t>
+  </si>
+  <si>
+    <t>116350971</t>
+  </si>
+  <si>
+    <t>116350973</t>
+  </si>
+  <si>
+    <t>116350974</t>
+  </si>
+  <si>
+    <t>116350975</t>
+  </si>
+  <si>
+    <t>116350976</t>
+  </si>
+  <si>
+    <t>116350979</t>
+  </si>
+  <si>
+    <t>116350981</t>
+  </si>
+  <si>
+    <t>116350982</t>
+  </si>
+  <si>
+    <t>116350983</t>
+  </si>
+  <si>
+    <t>116350984</t>
+  </si>
+  <si>
+    <t>116350986</t>
+  </si>
+  <si>
+    <t>116350988</t>
+  </si>
+  <si>
+    <t>116350989</t>
+  </si>
+  <si>
+    <t>116350991</t>
+  </si>
+  <si>
+    <t>116350992</t>
+  </si>
+  <si>
+    <t>116350994</t>
+  </si>
+  <si>
+    <t>116350996</t>
+  </si>
+  <si>
+    <t>116350997</t>
+  </si>
+  <si>
+    <t>116350999</t>
+  </si>
+  <si>
+    <t>116351001</t>
+  </si>
+  <si>
+    <t>116351003</t>
+  </si>
+  <si>
+    <t>116351005</t>
+  </si>
+  <si>
+    <t>116351006</t>
+  </si>
+  <si>
+    <t>116351008</t>
+  </si>
+  <si>
+    <t>116351011</t>
+  </si>
+  <si>
+    <t>116351013</t>
+  </si>
+  <si>
+    <t>116351014</t>
+  </si>
+  <si>
+    <t>116351017</t>
+  </si>
+  <si>
+    <t>116351018</t>
+  </si>
+  <si>
+    <t>116351020</t>
+  </si>
+  <si>
+    <t>116351021</t>
+  </si>
+  <si>
+    <t>116351024</t>
+  </si>
+  <si>
+    <t>116351025</t>
+  </si>
+  <si>
+    <t>116351026</t>
+  </si>
+  <si>
+    <t>116351029</t>
+  </si>
+  <si>
+    <t>116351031</t>
+  </si>
+  <si>
+    <t>116351032</t>
+  </si>
+  <si>
+    <t>116351034</t>
+  </si>
+  <si>
+    <t>116351035</t>
+  </si>
+  <si>
+    <t>116351038</t>
+  </si>
+  <si>
+    <t>116351039</t>
+  </si>
+  <si>
+    <t>116351040</t>
+  </si>
+  <si>
+    <t>116351042</t>
+  </si>
+  <si>
+    <t>116351044</t>
+  </si>
+  <si>
+    <t>116351046</t>
+  </si>
+  <si>
+    <t>116351048</t>
+  </si>
+  <si>
+    <t>116351049</t>
+  </si>
+  <si>
+    <t>116351052</t>
+  </si>
+  <si>
+    <t>116351053</t>
+  </si>
+  <si>
+    <t>116351056</t>
+  </si>
+  <si>
+    <t>116351059</t>
+  </si>
+  <si>
+    <t>116351060</t>
+  </si>
+  <si>
+    <t>116351061</t>
+  </si>
+  <si>
+    <t>116351064</t>
+  </si>
+  <si>
+    <t>116351066</t>
+  </si>
+  <si>
+    <t>116351069</t>
+  </si>
+  <si>
+    <t>116351070</t>
+  </si>
+  <si>
+    <t>116351072</t>
+  </si>
+  <si>
+    <t>116351075</t>
+  </si>
+  <si>
+    <t>116351076</t>
+  </si>
+  <si>
+    <t>116351077</t>
+  </si>
+  <si>
+    <t>116351079</t>
+  </si>
+  <si>
+    <t>116351081</t>
+  </si>
+  <si>
+    <t>116351082</t>
+  </si>
+  <si>
+    <t>116351083</t>
+  </si>
+  <si>
+    <t>116351084</t>
+  </si>
+  <si>
+    <t>116351085</t>
+  </si>
+  <si>
+    <t>116351087</t>
+  </si>
+  <si>
+    <t>116351088</t>
+  </si>
+  <si>
+    <t>116351090</t>
+  </si>
+  <si>
+    <t>116351092</t>
+  </si>
+  <si>
+    <t>116351093</t>
+  </si>
+  <si>
+    <t>116351094</t>
+  </si>
+  <si>
+    <t>116351095</t>
+  </si>
+  <si>
+    <t>116351097</t>
+  </si>
+  <si>
+    <t>116351100</t>
+  </si>
+  <si>
+    <t>116351101</t>
+  </si>
+  <si>
+    <t>116351102</t>
+  </si>
+  <si>
+    <t>116351104</t>
+  </si>
+  <si>
+    <t>116351106</t>
+  </si>
+  <si>
+    <t>116351107</t>
+  </si>
+  <si>
+    <t>116351109</t>
+  </si>
+  <si>
+    <t>116351111</t>
+  </si>
+  <si>
+    <t>116351113</t>
+  </si>
+  <si>
+    <t>116351115</t>
+  </si>
+  <si>
+    <t>116351116</t>
+  </si>
+  <si>
+    <t>116351120</t>
+  </si>
+  <si>
+    <t>116351121</t>
+  </si>
+  <si>
+    <t>116351123</t>
+  </si>
+  <si>
+    <t>116351125</t>
+  </si>
+  <si>
+    <t>116351127</t>
+  </si>
+  <si>
+    <t>116351128</t>
+  </si>
+  <si>
+    <t>116351130</t>
+  </si>
+  <si>
+    <t>116351132</t>
+  </si>
+  <si>
+    <t>116351134</t>
+  </si>
+  <si>
+    <t>116351136</t>
+  </si>
+  <si>
+    <t>116351138</t>
+  </si>
+  <si>
+    <t>116351139</t>
+  </si>
+  <si>
+    <t>116351141</t>
+  </si>
+  <si>
+    <t>116351142</t>
+  </si>
+  <si>
+    <t>116351144</t>
+  </si>
+  <si>
+    <t>116351146</t>
+  </si>
+  <si>
+    <t>116351147</t>
+  </si>
+  <si>
+    <t>116351150</t>
+  </si>
+  <si>
+    <t>116351151</t>
+  </si>
+  <si>
+    <t>116351153</t>
+  </si>
+  <si>
+    <t>116351155</t>
+  </si>
+  <si>
+    <t>116351157</t>
+  </si>
+  <si>
+    <t>116351158</t>
+  </si>
+  <si>
+    <t>116351159</t>
+  </si>
+  <si>
+    <t>116351161</t>
+  </si>
+  <si>
+    <t>116351162</t>
+  </si>
+  <si>
+    <t>116351163</t>
+  </si>
+  <si>
+    <t>116351165</t>
+  </si>
+  <si>
+    <t>116351167</t>
+  </si>
+  <si>
+    <t>116351168</t>
+  </si>
+  <si>
+    <t>116351170</t>
+  </si>
+  <si>
+    <t>116351171</t>
+  </si>
+  <si>
+    <t>116351172</t>
+  </si>
+  <si>
+    <t>116351175</t>
+  </si>
+  <si>
+    <t>116351176</t>
+  </si>
+  <si>
+    <t>116351178</t>
+  </si>
+  <si>
+    <t>116351179</t>
+  </si>
+  <si>
+    <t>116351181</t>
+  </si>
+  <si>
+    <t>116351182</t>
+  </si>
+  <si>
+    <t>116351183</t>
+  </si>
+  <si>
+    <t>116351184</t>
+  </si>
+  <si>
+    <t>116351186</t>
+  </si>
+  <si>
+    <t>116351187</t>
+  </si>
+  <si>
+    <t>116351188</t>
+  </si>
+  <si>
+    <t>116351191</t>
+  </si>
+  <si>
+    <t>116351192</t>
+  </si>
+  <si>
+    <t>116351193</t>
+  </si>
+  <si>
+    <t>116351194</t>
+  </si>
+  <si>
+    <t>116351195</t>
+  </si>
+  <si>
+    <t>116351198</t>
+  </si>
+  <si>
+    <t>116351199</t>
+  </si>
+  <si>
+    <t>116351200</t>
+  </si>
+  <si>
+    <t>116351201</t>
+  </si>
+  <si>
+    <t>116351202</t>
+  </si>
+  <si>
+    <t>116351203</t>
+  </si>
+  <si>
+    <t>116351204</t>
+  </si>
+  <si>
+    <t>116351206</t>
+  </si>
+  <si>
+    <t>116351208</t>
+  </si>
+  <si>
+    <t>116351209</t>
+  </si>
+  <si>
+    <t>116351210</t>
+  </si>
+  <si>
+    <t>116351212</t>
+  </si>
+  <si>
+    <t>116351213</t>
+  </si>
+  <si>
+    <t>116351215</t>
+  </si>
+  <si>
+    <t>116351216</t>
+  </si>
+  <si>
+    <t>116351218</t>
+  </si>
+  <si>
+    <t>116351219</t>
+  </si>
+  <si>
+    <t>116351221</t>
+  </si>
+  <si>
+    <t>116351222</t>
+  </si>
+  <si>
+    <t>116351223</t>
+  </si>
+  <si>
+    <t>116351226</t>
+  </si>
+  <si>
+    <t>116351227</t>
+  </si>
+  <si>
+    <t>116351228</t>
+  </si>
+  <si>
+    <t>116351229</t>
+  </si>
+  <si>
+    <t>116351231</t>
+  </si>
+  <si>
+    <t>116351233</t>
+  </si>
+  <si>
+    <t>116351234</t>
+  </si>
+  <si>
+    <t>116351236</t>
+  </si>
+  <si>
+    <t>116351237</t>
+  </si>
+  <si>
+    <t>116351238</t>
+  </si>
+  <si>
+    <t>116351240</t>
+  </si>
+  <si>
+    <t>116351242</t>
+  </si>
+  <si>
+    <t>116351243</t>
+  </si>
+  <si>
+    <t>116351245</t>
+  </si>
+  <si>
+    <t>116351247</t>
+  </si>
+  <si>
+    <t>116351249</t>
+  </si>
+  <si>
+    <t>116351250</t>
+  </si>
+  <si>
+    <t>116351253</t>
+  </si>
+  <si>
+    <t>116351254</t>
+  </si>
+  <si>
+    <t>116351255</t>
+  </si>
+  <si>
+    <t>116351257</t>
+  </si>
+  <si>
+    <t>116351259</t>
+  </si>
+  <si>
+    <t>116351261</t>
+  </si>
+  <si>
+    <t>116351262</t>
+  </si>
+  <si>
+    <t>116351264</t>
+  </si>
+  <si>
+    <t>116351265</t>
+  </si>
+  <si>
+    <t>116351267</t>
+  </si>
+  <si>
+    <t>116351268</t>
+  </si>
+  <si>
+    <t>116351270</t>
+  </si>
+  <si>
+    <t>116351272</t>
+  </si>
+  <si>
+    <t>116351273</t>
+  </si>
+  <si>
+    <t>116351274</t>
+  </si>
+  <si>
+    <t>116351276</t>
+  </si>
+  <si>
+    <t>116351277</t>
+  </si>
+  <si>
+    <t>116351278</t>
+  </si>
+  <si>
+    <t>116351280</t>
+  </si>
+  <si>
+    <t>116351281</t>
+  </si>
+  <si>
+    <t>116351283</t>
+  </si>
+  <si>
+    <t>116351284</t>
+  </si>
+  <si>
+    <t>116351286</t>
+  </si>
+  <si>
+    <t>116351289</t>
+  </si>
+  <si>
+    <t>116351290</t>
+  </si>
+  <si>
+    <t>116351292</t>
+  </si>
+  <si>
+    <t>116351294</t>
+  </si>
+  <si>
+    <t>116351295</t>
+  </si>
+  <si>
+    <t>116351297</t>
+  </si>
+  <si>
+    <t>116351299</t>
+  </si>
+  <si>
+    <t>116351300</t>
+  </si>
+  <si>
+    <t>116351301</t>
+  </si>
+  <si>
+    <t>116351303</t>
+  </si>
+  <si>
+    <t>116351304</t>
+  </si>
+  <si>
+    <t>116351305</t>
+  </si>
+  <si>
+    <t>116351307</t>
+  </si>
+  <si>
+    <t>116351308</t>
+  </si>
+  <si>
+    <t>116351311</t>
+  </si>
+  <si>
+    <t>116351312</t>
+  </si>
+  <si>
+    <t>116351313</t>
+  </si>
+  <si>
+    <t>116351314</t>
+  </si>
+  <si>
+    <t>116351316</t>
+  </si>
+  <si>
+    <t>116351318</t>
+  </si>
+  <si>
+    <t>116351319</t>
+  </si>
+  <si>
+    <t>116351320</t>
+  </si>
+  <si>
+    <t>116351321</t>
+  </si>
+  <si>
+    <t>116351324</t>
+  </si>
+  <si>
+    <t>116351326</t>
+  </si>
+  <si>
+    <t>116351327</t>
+  </si>
+  <si>
+    <t>116351328</t>
+  </si>
+  <si>
+    <t>116351329</t>
+  </si>
+  <si>
+    <t>116351332</t>
   </si>
 </sst>
 </file>
@@ -769,11 +1519,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E112"/>
+  <dimension ref="A1:E474"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <pane ySplit="1" topLeftCell="A420" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C439" sqref="C439"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2689,6 +3439,6143 @@
         <v>6</v>
       </c>
     </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>8</v>
+      </c>
+      <c r="B114">
+        <v>139675497</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D114" t="s">
+        <v>4</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>9</v>
+      </c>
+      <c r="B115">
+        <v>139675497</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D115" t="s">
+        <v>4</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>10</v>
+      </c>
+      <c r="B116">
+        <v>139675497</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D116" t="s">
+        <v>4</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>11</v>
+      </c>
+      <c r="B117">
+        <v>139675497</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D117" t="s">
+        <v>4</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>12</v>
+      </c>
+      <c r="B118">
+        <v>139675497</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D118" t="s">
+        <v>4</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>13</v>
+      </c>
+      <c r="B119">
+        <v>139675497</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D119" t="s">
+        <v>4</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>14</v>
+      </c>
+      <c r="B120">
+        <v>139675497</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D120" t="s">
+        <v>4</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>15</v>
+      </c>
+      <c r="B121">
+        <v>139675497</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D121" t="s">
+        <v>4</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>16</v>
+      </c>
+      <c r="B122">
+        <v>139675497</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D122" t="s">
+        <v>4</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>17</v>
+      </c>
+      <c r="B123">
+        <v>139675497</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D123" t="s">
+        <v>4</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>18</v>
+      </c>
+      <c r="B124">
+        <v>139675497</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D124" t="s">
+        <v>4</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>19</v>
+      </c>
+      <c r="B125">
+        <v>139675497</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D125" t="s">
+        <v>4</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>20</v>
+      </c>
+      <c r="B126">
+        <v>139675497</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D126" t="s">
+        <v>4</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>21</v>
+      </c>
+      <c r="B127">
+        <v>139675497</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D127" t="s">
+        <v>4</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>22</v>
+      </c>
+      <c r="B128">
+        <v>139675497</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D128" t="s">
+        <v>4</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>23</v>
+      </c>
+      <c r="B129">
+        <v>139675497</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D129" t="s">
+        <v>4</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>24</v>
+      </c>
+      <c r="B130">
+        <v>139675497</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D130" t="s">
+        <v>4</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>25</v>
+      </c>
+      <c r="B131">
+        <v>139675497</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D131" t="s">
+        <v>4</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>26</v>
+      </c>
+      <c r="B132">
+        <v>139675497</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D132" t="s">
+        <v>4</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>27</v>
+      </c>
+      <c r="B133">
+        <v>139675497</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D133" t="s">
+        <v>4</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>28</v>
+      </c>
+      <c r="B134">
+        <v>139675497</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D134" t="s">
+        <v>4</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>29</v>
+      </c>
+      <c r="B135">
+        <v>139675497</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D135" t="s">
+        <v>4</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>30</v>
+      </c>
+      <c r="B136">
+        <v>139675497</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D136" t="s">
+        <v>4</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>31</v>
+      </c>
+      <c r="B137">
+        <v>139675497</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D137" t="s">
+        <v>4</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>32</v>
+      </c>
+      <c r="B138">
+        <v>139675497</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D138" t="s">
+        <v>4</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>33</v>
+      </c>
+      <c r="B139">
+        <v>139675497</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D139" t="s">
+        <v>4</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>34</v>
+      </c>
+      <c r="B140">
+        <v>139675497</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D140" t="s">
+        <v>4</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>35</v>
+      </c>
+      <c r="B141">
+        <v>139675497</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D141" t="s">
+        <v>4</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>36</v>
+      </c>
+      <c r="B142">
+        <v>139675497</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D142" t="s">
+        <v>4</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>37</v>
+      </c>
+      <c r="B143">
+        <v>139675497</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D143" t="s">
+        <v>4</v>
+      </c>
+      <c r="E143" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>38</v>
+      </c>
+      <c r="B144">
+        <v>139675497</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D144" t="s">
+        <v>4</v>
+      </c>
+      <c r="E144" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>39</v>
+      </c>
+      <c r="B145">
+        <v>139675497</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D145" t="s">
+        <v>4</v>
+      </c>
+      <c r="E145" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>40</v>
+      </c>
+      <c r="B146">
+        <v>139675497</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D146" t="s">
+        <v>4</v>
+      </c>
+      <c r="E146" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>41</v>
+      </c>
+      <c r="B147">
+        <v>139675497</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D147" t="s">
+        <v>4</v>
+      </c>
+      <c r="E147" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>42</v>
+      </c>
+      <c r="B148">
+        <v>139675497</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D148" t="s">
+        <v>4</v>
+      </c>
+      <c r="E148" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>43</v>
+      </c>
+      <c r="B149">
+        <v>139675497</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D149" t="s">
+        <v>4</v>
+      </c>
+      <c r="E149" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>44</v>
+      </c>
+      <c r="B150">
+        <v>139675497</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D150" t="s">
+        <v>4</v>
+      </c>
+      <c r="E150" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>45</v>
+      </c>
+      <c r="B151">
+        <v>139675497</v>
+      </c>
+      <c r="C151" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D151" t="s">
+        <v>4</v>
+      </c>
+      <c r="E151" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>46</v>
+      </c>
+      <c r="B152">
+        <v>139675497</v>
+      </c>
+      <c r="C152" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D152" t="s">
+        <v>4</v>
+      </c>
+      <c r="E152" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>47</v>
+      </c>
+      <c r="B153">
+        <v>139675497</v>
+      </c>
+      <c r="C153" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D153" t="s">
+        <v>4</v>
+      </c>
+      <c r="E153" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>48</v>
+      </c>
+      <c r="B154">
+        <v>139675497</v>
+      </c>
+      <c r="C154" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D154" t="s">
+        <v>4</v>
+      </c>
+      <c r="E154" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>49</v>
+      </c>
+      <c r="B155">
+        <v>139675497</v>
+      </c>
+      <c r="C155" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D155" t="s">
+        <v>4</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>50</v>
+      </c>
+      <c r="B156">
+        <v>139675497</v>
+      </c>
+      <c r="C156" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D156" t="s">
+        <v>4</v>
+      </c>
+      <c r="E156" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>51</v>
+      </c>
+      <c r="B157">
+        <v>139675497</v>
+      </c>
+      <c r="C157" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D157" t="s">
+        <v>4</v>
+      </c>
+      <c r="E157" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>52</v>
+      </c>
+      <c r="B158">
+        <v>139675497</v>
+      </c>
+      <c r="C158" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D158" t="s">
+        <v>4</v>
+      </c>
+      <c r="E158" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>53</v>
+      </c>
+      <c r="B159">
+        <v>139675497</v>
+      </c>
+      <c r="C159" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D159" t="s">
+        <v>4</v>
+      </c>
+      <c r="E159" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>54</v>
+      </c>
+      <c r="B160">
+        <v>139675497</v>
+      </c>
+      <c r="C160" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D160" t="s">
+        <v>4</v>
+      </c>
+      <c r="E160" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>55</v>
+      </c>
+      <c r="B161">
+        <v>139675497</v>
+      </c>
+      <c r="C161" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D161" t="s">
+        <v>4</v>
+      </c>
+      <c r="E161" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>56</v>
+      </c>
+      <c r="B162">
+        <v>139675497</v>
+      </c>
+      <c r="C162" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D162" t="s">
+        <v>4</v>
+      </c>
+      <c r="E162" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>57</v>
+      </c>
+      <c r="B163">
+        <v>139675497</v>
+      </c>
+      <c r="C163" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D163" t="s">
+        <v>4</v>
+      </c>
+      <c r="E163" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>58</v>
+      </c>
+      <c r="B164">
+        <v>139675497</v>
+      </c>
+      <c r="C164" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D164" t="s">
+        <v>4</v>
+      </c>
+      <c r="E164" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>59</v>
+      </c>
+      <c r="B165">
+        <v>139675497</v>
+      </c>
+      <c r="C165" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D165" t="s">
+        <v>4</v>
+      </c>
+      <c r="E165" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>60</v>
+      </c>
+      <c r="B166">
+        <v>139675497</v>
+      </c>
+      <c r="C166" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D166" t="s">
+        <v>4</v>
+      </c>
+      <c r="E166" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>61</v>
+      </c>
+      <c r="B167">
+        <v>139675497</v>
+      </c>
+      <c r="C167" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D167" t="s">
+        <v>4</v>
+      </c>
+      <c r="E167" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>62</v>
+      </c>
+      <c r="B168">
+        <v>139675497</v>
+      </c>
+      <c r="C168" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D168" t="s">
+        <v>4</v>
+      </c>
+      <c r="E168" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>63</v>
+      </c>
+      <c r="B169">
+        <v>139675497</v>
+      </c>
+      <c r="C169" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D169" t="s">
+        <v>4</v>
+      </c>
+      <c r="E169" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>64</v>
+      </c>
+      <c r="B170">
+        <v>139675497</v>
+      </c>
+      <c r="C170" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D170" t="s">
+        <v>4</v>
+      </c>
+      <c r="E170" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>65</v>
+      </c>
+      <c r="B171">
+        <v>139675497</v>
+      </c>
+      <c r="C171" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D171" t="s">
+        <v>4</v>
+      </c>
+      <c r="E171" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>66</v>
+      </c>
+      <c r="B172">
+        <v>139675497</v>
+      </c>
+      <c r="C172" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D172" t="s">
+        <v>4</v>
+      </c>
+      <c r="E172" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>67</v>
+      </c>
+      <c r="B173">
+        <v>139675497</v>
+      </c>
+      <c r="C173" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D173" t="s">
+        <v>4</v>
+      </c>
+      <c r="E173" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>68</v>
+      </c>
+      <c r="B174">
+        <v>139675497</v>
+      </c>
+      <c r="C174" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D174" t="s">
+        <v>4</v>
+      </c>
+      <c r="E174" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>69</v>
+      </c>
+      <c r="B175">
+        <v>139675497</v>
+      </c>
+      <c r="C175" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D175" t="s">
+        <v>4</v>
+      </c>
+      <c r="E175" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>70</v>
+      </c>
+      <c r="B176">
+        <v>139675497</v>
+      </c>
+      <c r="C176" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D176" t="s">
+        <v>4</v>
+      </c>
+      <c r="E176" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>71</v>
+      </c>
+      <c r="B177">
+        <v>139675497</v>
+      </c>
+      <c r="C177" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D177" t="s">
+        <v>4</v>
+      </c>
+      <c r="E177" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>72</v>
+      </c>
+      <c r="B178">
+        <v>139675497</v>
+      </c>
+      <c r="C178" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D178" t="s">
+        <v>4</v>
+      </c>
+      <c r="E178" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>73</v>
+      </c>
+      <c r="B179">
+        <v>139675497</v>
+      </c>
+      <c r="C179" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D179" t="s">
+        <v>4</v>
+      </c>
+      <c r="E179" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>74</v>
+      </c>
+      <c r="B180">
+        <v>139675497</v>
+      </c>
+      <c r="C180" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D180" t="s">
+        <v>4</v>
+      </c>
+      <c r="E180" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>75</v>
+      </c>
+      <c r="B181">
+        <v>139675497</v>
+      </c>
+      <c r="C181" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D181" t="s">
+        <v>4</v>
+      </c>
+      <c r="E181" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>76</v>
+      </c>
+      <c r="B182">
+        <v>139675497</v>
+      </c>
+      <c r="C182" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D182" t="s">
+        <v>4</v>
+      </c>
+      <c r="E182" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>77</v>
+      </c>
+      <c r="B183">
+        <v>139675497</v>
+      </c>
+      <c r="C183" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D183" t="s">
+        <v>4</v>
+      </c>
+      <c r="E183" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>78</v>
+      </c>
+      <c r="B184">
+        <v>139675497</v>
+      </c>
+      <c r="C184" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D184" t="s">
+        <v>4</v>
+      </c>
+      <c r="E184" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>79</v>
+      </c>
+      <c r="B185">
+        <v>139675497</v>
+      </c>
+      <c r="C185" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D185" t="s">
+        <v>4</v>
+      </c>
+      <c r="E185" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>80</v>
+      </c>
+      <c r="B186">
+        <v>139675497</v>
+      </c>
+      <c r="C186" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D186" t="s">
+        <v>4</v>
+      </c>
+      <c r="E186" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>81</v>
+      </c>
+      <c r="B187">
+        <v>139675497</v>
+      </c>
+      <c r="C187" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D187" t="s">
+        <v>4</v>
+      </c>
+      <c r="E187" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>82</v>
+      </c>
+      <c r="B188">
+        <v>139675497</v>
+      </c>
+      <c r="C188" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D188" t="s">
+        <v>4</v>
+      </c>
+      <c r="E188" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>83</v>
+      </c>
+      <c r="B189">
+        <v>139675497</v>
+      </c>
+      <c r="C189" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D189" t="s">
+        <v>4</v>
+      </c>
+      <c r="E189" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>84</v>
+      </c>
+      <c r="B190">
+        <v>139675497</v>
+      </c>
+      <c r="C190" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D190" t="s">
+        <v>4</v>
+      </c>
+      <c r="E190" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>85</v>
+      </c>
+      <c r="B191">
+        <v>139675497</v>
+      </c>
+      <c r="C191" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D191" t="s">
+        <v>4</v>
+      </c>
+      <c r="E191" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>86</v>
+      </c>
+      <c r="B192">
+        <v>139675497</v>
+      </c>
+      <c r="C192" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D192" t="s">
+        <v>4</v>
+      </c>
+      <c r="E192" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>87</v>
+      </c>
+      <c r="B193">
+        <v>139675497</v>
+      </c>
+      <c r="C193" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D193" t="s">
+        <v>4</v>
+      </c>
+      <c r="E193" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>88</v>
+      </c>
+      <c r="B194">
+        <v>139675497</v>
+      </c>
+      <c r="C194" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D194" t="s">
+        <v>4</v>
+      </c>
+      <c r="E194" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>89</v>
+      </c>
+      <c r="B195">
+        <v>139675497</v>
+      </c>
+      <c r="C195" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D195" t="s">
+        <v>4</v>
+      </c>
+      <c r="E195" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>90</v>
+      </c>
+      <c r="B196">
+        <v>139675497</v>
+      </c>
+      <c r="C196" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D196" t="s">
+        <v>4</v>
+      </c>
+      <c r="E196" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>91</v>
+      </c>
+      <c r="B197">
+        <v>139675497</v>
+      </c>
+      <c r="C197" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D197" t="s">
+        <v>4</v>
+      </c>
+      <c r="E197" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>92</v>
+      </c>
+      <c r="B198">
+        <v>139675497</v>
+      </c>
+      <c r="C198" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D198" t="s">
+        <v>4</v>
+      </c>
+      <c r="E198" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>93</v>
+      </c>
+      <c r="B199">
+        <v>139675497</v>
+      </c>
+      <c r="C199" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D199" t="s">
+        <v>4</v>
+      </c>
+      <c r="E199" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>94</v>
+      </c>
+      <c r="B200">
+        <v>139675497</v>
+      </c>
+      <c r="C200" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D200" t="s">
+        <v>4</v>
+      </c>
+      <c r="E200" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>95</v>
+      </c>
+      <c r="B201">
+        <v>139675497</v>
+      </c>
+      <c r="C201" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D201" t="s">
+        <v>4</v>
+      </c>
+      <c r="E201" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>96</v>
+      </c>
+      <c r="B202">
+        <v>139675497</v>
+      </c>
+      <c r="C202" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D202" t="s">
+        <v>4</v>
+      </c>
+      <c r="E202" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>97</v>
+      </c>
+      <c r="B203">
+        <v>139675497</v>
+      </c>
+      <c r="C203" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D203" t="s">
+        <v>4</v>
+      </c>
+      <c r="E203" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>98</v>
+      </c>
+      <c r="B204">
+        <v>139675497</v>
+      </c>
+      <c r="C204" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D204" t="s">
+        <v>4</v>
+      </c>
+      <c r="E204" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>99</v>
+      </c>
+      <c r="B205">
+        <v>139675497</v>
+      </c>
+      <c r="C205" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D205" t="s">
+        <v>4</v>
+      </c>
+      <c r="E205" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>100</v>
+      </c>
+      <c r="B206">
+        <v>139675497</v>
+      </c>
+      <c r="C206" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D206" t="s">
+        <v>4</v>
+      </c>
+      <c r="E206" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>101</v>
+      </c>
+      <c r="B207">
+        <v>139675497</v>
+      </c>
+      <c r="C207" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D207" t="s">
+        <v>4</v>
+      </c>
+      <c r="E207" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>102</v>
+      </c>
+      <c r="B208">
+        <v>139675497</v>
+      </c>
+      <c r="C208" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D208" t="s">
+        <v>4</v>
+      </c>
+      <c r="E208" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>103</v>
+      </c>
+      <c r="B209">
+        <v>139675497</v>
+      </c>
+      <c r="C209" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D209" t="s">
+        <v>4</v>
+      </c>
+      <c r="E209" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>104</v>
+      </c>
+      <c r="B210">
+        <v>139675497</v>
+      </c>
+      <c r="C210" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D210" t="s">
+        <v>4</v>
+      </c>
+      <c r="E210" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>105</v>
+      </c>
+      <c r="B211">
+        <v>139675497</v>
+      </c>
+      <c r="C211" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D211" t="s">
+        <v>4</v>
+      </c>
+      <c r="E211" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>106</v>
+      </c>
+      <c r="B212">
+        <v>139675497</v>
+      </c>
+      <c r="C212" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D212" t="s">
+        <v>4</v>
+      </c>
+      <c r="E212" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>107</v>
+      </c>
+      <c r="B213">
+        <v>139675497</v>
+      </c>
+      <c r="C213" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D213" t="s">
+        <v>4</v>
+      </c>
+      <c r="E213" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>108</v>
+      </c>
+      <c r="B214">
+        <v>139675497</v>
+      </c>
+      <c r="C214" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D214" t="s">
+        <v>4</v>
+      </c>
+      <c r="E214" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>109</v>
+      </c>
+      <c r="B215">
+        <v>139675497</v>
+      </c>
+      <c r="C215" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D215" t="s">
+        <v>4</v>
+      </c>
+      <c r="E215" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>110</v>
+      </c>
+      <c r="B216">
+        <v>139675497</v>
+      </c>
+      <c r="C216" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D216" t="s">
+        <v>4</v>
+      </c>
+      <c r="E216" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>111</v>
+      </c>
+      <c r="B217">
+        <v>139675497</v>
+      </c>
+      <c r="C217" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D217" t="s">
+        <v>4</v>
+      </c>
+      <c r="E217" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>112</v>
+      </c>
+      <c r="B218">
+        <v>139675497</v>
+      </c>
+      <c r="C218" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D218" t="s">
+        <v>4</v>
+      </c>
+      <c r="E218" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>113</v>
+      </c>
+      <c r="B219">
+        <v>139675497</v>
+      </c>
+      <c r="C219" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D219" t="s">
+        <v>4</v>
+      </c>
+      <c r="E219" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>114</v>
+      </c>
+      <c r="B220">
+        <v>139675497</v>
+      </c>
+      <c r="C220" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D220" t="s">
+        <v>4</v>
+      </c>
+      <c r="E220" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>115</v>
+      </c>
+      <c r="B221">
+        <v>139675497</v>
+      </c>
+      <c r="C221" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D221" t="s">
+        <v>4</v>
+      </c>
+      <c r="E221" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>116</v>
+      </c>
+      <c r="B222">
+        <v>139675497</v>
+      </c>
+      <c r="C222" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D222" t="s">
+        <v>4</v>
+      </c>
+      <c r="E222" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>117</v>
+      </c>
+      <c r="B223">
+        <v>139675497</v>
+      </c>
+      <c r="C223" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D223" t="s">
+        <v>4</v>
+      </c>
+      <c r="E223" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>118</v>
+      </c>
+      <c r="B224">
+        <v>139675497</v>
+      </c>
+      <c r="C224" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D224" t="s">
+        <v>4</v>
+      </c>
+      <c r="E224" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>119</v>
+      </c>
+      <c r="B225">
+        <v>139675497</v>
+      </c>
+      <c r="C225" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D225" t="s">
+        <v>4</v>
+      </c>
+      <c r="E225" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>120</v>
+      </c>
+      <c r="B226">
+        <v>139675497</v>
+      </c>
+      <c r="C226" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D226" t="s">
+        <v>4</v>
+      </c>
+      <c r="E226" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>121</v>
+      </c>
+      <c r="B227">
+        <v>139675497</v>
+      </c>
+      <c r="C227" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D227" t="s">
+        <v>4</v>
+      </c>
+      <c r="E227" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>122</v>
+      </c>
+      <c r="B228">
+        <v>139675497</v>
+      </c>
+      <c r="C228" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D228" t="s">
+        <v>4</v>
+      </c>
+      <c r="E228" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>123</v>
+      </c>
+      <c r="B229">
+        <v>139675497</v>
+      </c>
+      <c r="C229" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D229" t="s">
+        <v>4</v>
+      </c>
+      <c r="E229" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>124</v>
+      </c>
+      <c r="B230">
+        <v>139675497</v>
+      </c>
+      <c r="C230" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D230" t="s">
+        <v>4</v>
+      </c>
+      <c r="E230" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>125</v>
+      </c>
+      <c r="B231">
+        <v>139675497</v>
+      </c>
+      <c r="C231" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D231" t="s">
+        <v>4</v>
+      </c>
+      <c r="E231" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>126</v>
+      </c>
+      <c r="B232">
+        <v>139675497</v>
+      </c>
+      <c r="C232" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D232" t="s">
+        <v>4</v>
+      </c>
+      <c r="E232" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>127</v>
+      </c>
+      <c r="B233">
+        <v>139675497</v>
+      </c>
+      <c r="C233" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D233" t="s">
+        <v>4</v>
+      </c>
+      <c r="E233" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>128</v>
+      </c>
+      <c r="B234">
+        <v>139675497</v>
+      </c>
+      <c r="C234" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D234" t="s">
+        <v>4</v>
+      </c>
+      <c r="E234" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>129</v>
+      </c>
+      <c r="B235">
+        <v>139675497</v>
+      </c>
+      <c r="C235" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D235" t="s">
+        <v>4</v>
+      </c>
+      <c r="E235" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>130</v>
+      </c>
+      <c r="B236">
+        <v>139675497</v>
+      </c>
+      <c r="C236" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D236" t="s">
+        <v>4</v>
+      </c>
+      <c r="E236" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>131</v>
+      </c>
+      <c r="B237">
+        <v>139675497</v>
+      </c>
+      <c r="C237" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D237" t="s">
+        <v>4</v>
+      </c>
+      <c r="E237" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>132</v>
+      </c>
+      <c r="B238">
+        <v>139675497</v>
+      </c>
+      <c r="C238" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D238" t="s">
+        <v>4</v>
+      </c>
+      <c r="E238" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>133</v>
+      </c>
+      <c r="B239">
+        <v>139675497</v>
+      </c>
+      <c r="C239" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D239" t="s">
+        <v>4</v>
+      </c>
+      <c r="E239" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>134</v>
+      </c>
+      <c r="B240">
+        <v>139675497</v>
+      </c>
+      <c r="C240" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D240" t="s">
+        <v>4</v>
+      </c>
+      <c r="E240" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>135</v>
+      </c>
+      <c r="B241">
+        <v>139675497</v>
+      </c>
+      <c r="C241" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D241" t="s">
+        <v>4</v>
+      </c>
+      <c r="E241" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>136</v>
+      </c>
+      <c r="B242">
+        <v>139675497</v>
+      </c>
+      <c r="C242" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D242" t="s">
+        <v>4</v>
+      </c>
+      <c r="E242" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>137</v>
+      </c>
+      <c r="B243">
+        <v>139675497</v>
+      </c>
+      <c r="C243" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D243" t="s">
+        <v>4</v>
+      </c>
+      <c r="E243" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>138</v>
+      </c>
+      <c r="B244">
+        <v>139675497</v>
+      </c>
+      <c r="C244" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D244" t="s">
+        <v>4</v>
+      </c>
+      <c r="E244" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>139</v>
+      </c>
+      <c r="B245">
+        <v>139675497</v>
+      </c>
+      <c r="C245" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D245" t="s">
+        <v>4</v>
+      </c>
+      <c r="E245" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>140</v>
+      </c>
+      <c r="B246">
+        <v>139675497</v>
+      </c>
+      <c r="C246" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D246" t="s">
+        <v>4</v>
+      </c>
+      <c r="E246" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>141</v>
+      </c>
+      <c r="B247">
+        <v>139675497</v>
+      </c>
+      <c r="C247" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D247" t="s">
+        <v>4</v>
+      </c>
+      <c r="E247" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>142</v>
+      </c>
+      <c r="B248">
+        <v>139675497</v>
+      </c>
+      <c r="C248" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D248" t="s">
+        <v>4</v>
+      </c>
+      <c r="E248" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>143</v>
+      </c>
+      <c r="B249">
+        <v>139675497</v>
+      </c>
+      <c r="C249" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D249" t="s">
+        <v>4</v>
+      </c>
+      <c r="E249" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>144</v>
+      </c>
+      <c r="B250">
+        <v>139675497</v>
+      </c>
+      <c r="C250" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D250" t="s">
+        <v>4</v>
+      </c>
+      <c r="E250" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>145</v>
+      </c>
+      <c r="B251">
+        <v>139675497</v>
+      </c>
+      <c r="C251" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D251" t="s">
+        <v>4</v>
+      </c>
+      <c r="E251" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>146</v>
+      </c>
+      <c r="B252">
+        <v>139675497</v>
+      </c>
+      <c r="C252" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D252" t="s">
+        <v>4</v>
+      </c>
+      <c r="E252" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>147</v>
+      </c>
+      <c r="B253">
+        <v>139675497</v>
+      </c>
+      <c r="C253" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D253" t="s">
+        <v>4</v>
+      </c>
+      <c r="E253" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
+        <v>148</v>
+      </c>
+      <c r="B254">
+        <v>139675497</v>
+      </c>
+      <c r="C254" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D254" t="s">
+        <v>4</v>
+      </c>
+      <c r="E254" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
+        <v>149</v>
+      </c>
+      <c r="B255">
+        <v>139675497</v>
+      </c>
+      <c r="C255" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D255" t="s">
+        <v>4</v>
+      </c>
+      <c r="E255" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
+        <v>150</v>
+      </c>
+      <c r="B256">
+        <v>139675497</v>
+      </c>
+      <c r="C256" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D256" t="s">
+        <v>4</v>
+      </c>
+      <c r="E256" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
+        <v>151</v>
+      </c>
+      <c r="B257">
+        <v>139675497</v>
+      </c>
+      <c r="C257" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D257" t="s">
+        <v>4</v>
+      </c>
+      <c r="E257" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
+        <v>152</v>
+      </c>
+      <c r="B258">
+        <v>139675497</v>
+      </c>
+      <c r="C258" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D258" t="s">
+        <v>4</v>
+      </c>
+      <c r="E258" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
+        <v>153</v>
+      </c>
+      <c r="B259">
+        <v>139675497</v>
+      </c>
+      <c r="C259" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D259" t="s">
+        <v>4</v>
+      </c>
+      <c r="E259" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A260" t="s">
+        <v>154</v>
+      </c>
+      <c r="B260">
+        <v>139675497</v>
+      </c>
+      <c r="C260" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D260" t="s">
+        <v>4</v>
+      </c>
+      <c r="E260" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
+        <v>155</v>
+      </c>
+      <c r="B261">
+        <v>139675497</v>
+      </c>
+      <c r="C261" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D261" t="s">
+        <v>4</v>
+      </c>
+      <c r="E261" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
+        <v>156</v>
+      </c>
+      <c r="B262">
+        <v>139675497</v>
+      </c>
+      <c r="C262" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D262" t="s">
+        <v>4</v>
+      </c>
+      <c r="E262" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
+        <v>157</v>
+      </c>
+      <c r="B263">
+        <v>139675497</v>
+      </c>
+      <c r="C263" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D263" t="s">
+        <v>4</v>
+      </c>
+      <c r="E263" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
+        <v>158</v>
+      </c>
+      <c r="B264">
+        <v>139675497</v>
+      </c>
+      <c r="C264" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D264" t="s">
+        <v>4</v>
+      </c>
+      <c r="E264" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A265" t="s">
+        <v>159</v>
+      </c>
+      <c r="B265">
+        <v>139675497</v>
+      </c>
+      <c r="C265" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D265" t="s">
+        <v>4</v>
+      </c>
+      <c r="E265" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
+        <v>160</v>
+      </c>
+      <c r="B266">
+        <v>139675497</v>
+      </c>
+      <c r="C266" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D266" t="s">
+        <v>4</v>
+      </c>
+      <c r="E266" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
+        <v>161</v>
+      </c>
+      <c r="B267">
+        <v>139675497</v>
+      </c>
+      <c r="C267" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D267" t="s">
+        <v>4</v>
+      </c>
+      <c r="E267" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A268" t="s">
+        <v>162</v>
+      </c>
+      <c r="B268">
+        <v>139675497</v>
+      </c>
+      <c r="C268" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D268" t="s">
+        <v>4</v>
+      </c>
+      <c r="E268" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A269" t="s">
+        <v>163</v>
+      </c>
+      <c r="B269">
+        <v>139675497</v>
+      </c>
+      <c r="C269" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D269" t="s">
+        <v>4</v>
+      </c>
+      <c r="E269" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A270" t="s">
+        <v>164</v>
+      </c>
+      <c r="B270">
+        <v>139675497</v>
+      </c>
+      <c r="C270" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D270" t="s">
+        <v>4</v>
+      </c>
+      <c r="E270" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
+        <v>165</v>
+      </c>
+      <c r="B271">
+        <v>139675497</v>
+      </c>
+      <c r="C271" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D271" t="s">
+        <v>4</v>
+      </c>
+      <c r="E271" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
+        <v>166</v>
+      </c>
+      <c r="B272">
+        <v>139675497</v>
+      </c>
+      <c r="C272" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D272" t="s">
+        <v>4</v>
+      </c>
+      <c r="E272" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A273" t="s">
+        <v>167</v>
+      </c>
+      <c r="B273">
+        <v>139675497</v>
+      </c>
+      <c r="C273" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D273" t="s">
+        <v>4</v>
+      </c>
+      <c r="E273" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
+        <v>168</v>
+      </c>
+      <c r="B274">
+        <v>139675497</v>
+      </c>
+      <c r="C274" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D274" t="s">
+        <v>4</v>
+      </c>
+      <c r="E274" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
+        <v>169</v>
+      </c>
+      <c r="B275">
+        <v>139675497</v>
+      </c>
+      <c r="C275" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D275" t="s">
+        <v>4</v>
+      </c>
+      <c r="E275" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A276" t="s">
+        <v>170</v>
+      </c>
+      <c r="B276">
+        <v>139675497</v>
+      </c>
+      <c r="C276" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D276" t="s">
+        <v>4</v>
+      </c>
+      <c r="E276" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A277" t="s">
+        <v>171</v>
+      </c>
+      <c r="B277">
+        <v>139675497</v>
+      </c>
+      <c r="C277" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D277" t="s">
+        <v>4</v>
+      </c>
+      <c r="E277" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A278" t="s">
+        <v>172</v>
+      </c>
+      <c r="B278">
+        <v>139675497</v>
+      </c>
+      <c r="C278" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D278" t="s">
+        <v>4</v>
+      </c>
+      <c r="E278" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A279" t="s">
+        <v>173</v>
+      </c>
+      <c r="B279">
+        <v>139675497</v>
+      </c>
+      <c r="C279" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D279" t="s">
+        <v>4</v>
+      </c>
+      <c r="E279" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A280" t="s">
+        <v>174</v>
+      </c>
+      <c r="B280">
+        <v>139675497</v>
+      </c>
+      <c r="C280" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D280" t="s">
+        <v>4</v>
+      </c>
+      <c r="E280" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A281" t="s">
+        <v>175</v>
+      </c>
+      <c r="B281">
+        <v>139675497</v>
+      </c>
+      <c r="C281" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D281" t="s">
+        <v>4</v>
+      </c>
+      <c r="E281" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A282" t="s">
+        <v>176</v>
+      </c>
+      <c r="B282">
+        <v>139675497</v>
+      </c>
+      <c r="C282" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D282" t="s">
+        <v>4</v>
+      </c>
+      <c r="E282" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A283" t="s">
+        <v>177</v>
+      </c>
+      <c r="B283">
+        <v>139675497</v>
+      </c>
+      <c r="C283" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D283" t="s">
+        <v>4</v>
+      </c>
+      <c r="E283" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A284" t="s">
+        <v>178</v>
+      </c>
+      <c r="B284">
+        <v>139675497</v>
+      </c>
+      <c r="C284" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D284" t="s">
+        <v>4</v>
+      </c>
+      <c r="E284" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A285" t="s">
+        <v>179</v>
+      </c>
+      <c r="B285">
+        <v>139675497</v>
+      </c>
+      <c r="C285" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D285" t="s">
+        <v>4</v>
+      </c>
+      <c r="E285" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A286" t="s">
+        <v>180</v>
+      </c>
+      <c r="B286">
+        <v>139675497</v>
+      </c>
+      <c r="C286" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D286" t="s">
+        <v>4</v>
+      </c>
+      <c r="E286" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A287" t="s">
+        <v>181</v>
+      </c>
+      <c r="B287">
+        <v>139675497</v>
+      </c>
+      <c r="C287" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D287" t="s">
+        <v>4</v>
+      </c>
+      <c r="E287" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A288" t="s">
+        <v>182</v>
+      </c>
+      <c r="B288">
+        <v>139675497</v>
+      </c>
+      <c r="C288" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D288" t="s">
+        <v>4</v>
+      </c>
+      <c r="E288" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A289" t="s">
+        <v>183</v>
+      </c>
+      <c r="B289">
+        <v>139675497</v>
+      </c>
+      <c r="C289" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D289" t="s">
+        <v>4</v>
+      </c>
+      <c r="E289" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A290" t="s">
+        <v>184</v>
+      </c>
+      <c r="B290">
+        <v>139675497</v>
+      </c>
+      <c r="C290" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D290" t="s">
+        <v>4</v>
+      </c>
+      <c r="E290" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A291" t="s">
+        <v>185</v>
+      </c>
+      <c r="B291">
+        <v>139675497</v>
+      </c>
+      <c r="C291" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D291" t="s">
+        <v>4</v>
+      </c>
+      <c r="E291" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A292" t="s">
+        <v>186</v>
+      </c>
+      <c r="B292">
+        <v>139675497</v>
+      </c>
+      <c r="C292" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D292" t="s">
+        <v>4</v>
+      </c>
+      <c r="E292" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A293" t="s">
+        <v>187</v>
+      </c>
+      <c r="B293">
+        <v>139675497</v>
+      </c>
+      <c r="C293" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D293" t="s">
+        <v>4</v>
+      </c>
+      <c r="E293" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A294" t="s">
+        <v>188</v>
+      </c>
+      <c r="B294">
+        <v>139675497</v>
+      </c>
+      <c r="C294" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D294" t="s">
+        <v>4</v>
+      </c>
+      <c r="E294" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A295" t="s">
+        <v>189</v>
+      </c>
+      <c r="B295">
+        <v>139675497</v>
+      </c>
+      <c r="C295" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D295" t="s">
+        <v>4</v>
+      </c>
+      <c r="E295" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A296" t="s">
+        <v>190</v>
+      </c>
+      <c r="B296">
+        <v>139675497</v>
+      </c>
+      <c r="C296" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D296" t="s">
+        <v>4</v>
+      </c>
+      <c r="E296" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A297" t="s">
+        <v>191</v>
+      </c>
+      <c r="B297">
+        <v>139675497</v>
+      </c>
+      <c r="C297" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D297" t="s">
+        <v>4</v>
+      </c>
+      <c r="E297" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A298" t="s">
+        <v>192</v>
+      </c>
+      <c r="B298">
+        <v>139675497</v>
+      </c>
+      <c r="C298" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D298" t="s">
+        <v>4</v>
+      </c>
+      <c r="E298" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A299" t="s">
+        <v>193</v>
+      </c>
+      <c r="B299">
+        <v>139675497</v>
+      </c>
+      <c r="C299" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D299" t="s">
+        <v>4</v>
+      </c>
+      <c r="E299" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A300" t="s">
+        <v>194</v>
+      </c>
+      <c r="B300">
+        <v>139675497</v>
+      </c>
+      <c r="C300" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D300" t="s">
+        <v>4</v>
+      </c>
+      <c r="E300" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A301" t="s">
+        <v>195</v>
+      </c>
+      <c r="B301">
+        <v>139675497</v>
+      </c>
+      <c r="C301" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D301" t="s">
+        <v>4</v>
+      </c>
+      <c r="E301" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A302" t="s">
+        <v>196</v>
+      </c>
+      <c r="B302">
+        <v>139675497</v>
+      </c>
+      <c r="C302" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D302" t="s">
+        <v>4</v>
+      </c>
+      <c r="E302" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A303" t="s">
+        <v>197</v>
+      </c>
+      <c r="B303">
+        <v>139675497</v>
+      </c>
+      <c r="C303" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D303" t="s">
+        <v>4</v>
+      </c>
+      <c r="E303" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A304" t="s">
+        <v>198</v>
+      </c>
+      <c r="B304">
+        <v>139675497</v>
+      </c>
+      <c r="C304" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D304" t="s">
+        <v>4</v>
+      </c>
+      <c r="E304" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A305" t="s">
+        <v>199</v>
+      </c>
+      <c r="B305">
+        <v>139675497</v>
+      </c>
+      <c r="C305" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D305" t="s">
+        <v>4</v>
+      </c>
+      <c r="E305" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A306" t="s">
+        <v>200</v>
+      </c>
+      <c r="B306">
+        <v>139675497</v>
+      </c>
+      <c r="C306" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D306" t="s">
+        <v>4</v>
+      </c>
+      <c r="E306" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A307" t="s">
+        <v>201</v>
+      </c>
+      <c r="B307">
+        <v>139675497</v>
+      </c>
+      <c r="C307" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D307" t="s">
+        <v>4</v>
+      </c>
+      <c r="E307" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A308" t="s">
+        <v>202</v>
+      </c>
+      <c r="B308">
+        <v>139675497</v>
+      </c>
+      <c r="C308" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D308" t="s">
+        <v>4</v>
+      </c>
+      <c r="E308" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A309" t="s">
+        <v>203</v>
+      </c>
+      <c r="B309">
+        <v>139675497</v>
+      </c>
+      <c r="C309" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D309" t="s">
+        <v>4</v>
+      </c>
+      <c r="E309" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A310" t="s">
+        <v>204</v>
+      </c>
+      <c r="B310">
+        <v>139675497</v>
+      </c>
+      <c r="C310" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D310" t="s">
+        <v>4</v>
+      </c>
+      <c r="E310" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A311" t="s">
+        <v>205</v>
+      </c>
+      <c r="B311">
+        <v>139675497</v>
+      </c>
+      <c r="C311" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D311" t="s">
+        <v>4</v>
+      </c>
+      <c r="E311" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A312" t="s">
+        <v>206</v>
+      </c>
+      <c r="B312">
+        <v>139675497</v>
+      </c>
+      <c r="C312" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D312" t="s">
+        <v>4</v>
+      </c>
+      <c r="E312" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A313" t="s">
+        <v>207</v>
+      </c>
+      <c r="B313">
+        <v>139675497</v>
+      </c>
+      <c r="C313" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D313" t="s">
+        <v>4</v>
+      </c>
+      <c r="E313" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A314" t="s">
+        <v>208</v>
+      </c>
+      <c r="B314">
+        <v>139675497</v>
+      </c>
+      <c r="C314" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D314" t="s">
+        <v>4</v>
+      </c>
+      <c r="E314" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A315" t="s">
+        <v>209</v>
+      </c>
+      <c r="B315">
+        <v>139675497</v>
+      </c>
+      <c r="C315" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D315" t="s">
+        <v>4</v>
+      </c>
+      <c r="E315" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A316" t="s">
+        <v>210</v>
+      </c>
+      <c r="B316">
+        <v>139675497</v>
+      </c>
+      <c r="C316" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D316" t="s">
+        <v>4</v>
+      </c>
+      <c r="E316" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A317" t="s">
+        <v>211</v>
+      </c>
+      <c r="B317">
+        <v>139675497</v>
+      </c>
+      <c r="C317" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D317" t="s">
+        <v>4</v>
+      </c>
+      <c r="E317" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A318" t="s">
+        <v>212</v>
+      </c>
+      <c r="B318">
+        <v>139675497</v>
+      </c>
+      <c r="C318" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D318" t="s">
+        <v>4</v>
+      </c>
+      <c r="E318" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A319" t="s">
+        <v>213</v>
+      </c>
+      <c r="B319">
+        <v>139675497</v>
+      </c>
+      <c r="C319" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D319" t="s">
+        <v>4</v>
+      </c>
+      <c r="E319" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A320" t="s">
+        <v>214</v>
+      </c>
+      <c r="B320">
+        <v>139675497</v>
+      </c>
+      <c r="C320" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D320" t="s">
+        <v>4</v>
+      </c>
+      <c r="E320" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A321" t="s">
+        <v>215</v>
+      </c>
+      <c r="B321">
+        <v>139675497</v>
+      </c>
+      <c r="C321" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D321" t="s">
+        <v>4</v>
+      </c>
+      <c r="E321" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A322" t="s">
+        <v>216</v>
+      </c>
+      <c r="B322">
+        <v>139675497</v>
+      </c>
+      <c r="C322" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D322" t="s">
+        <v>4</v>
+      </c>
+      <c r="E322" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A323" t="s">
+        <v>217</v>
+      </c>
+      <c r="B323">
+        <v>139675497</v>
+      </c>
+      <c r="C323" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D323" t="s">
+        <v>4</v>
+      </c>
+      <c r="E323" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A324" t="s">
+        <v>218</v>
+      </c>
+      <c r="B324">
+        <v>139675497</v>
+      </c>
+      <c r="C324" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D324" t="s">
+        <v>4</v>
+      </c>
+      <c r="E324" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A325" t="s">
+        <v>219</v>
+      </c>
+      <c r="B325">
+        <v>139675497</v>
+      </c>
+      <c r="C325" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D325" t="s">
+        <v>4</v>
+      </c>
+      <c r="E325" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A326" t="s">
+        <v>220</v>
+      </c>
+      <c r="B326">
+        <v>139675497</v>
+      </c>
+      <c r="C326" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D326" t="s">
+        <v>4</v>
+      </c>
+      <c r="E326" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A327" t="s">
+        <v>221</v>
+      </c>
+      <c r="B327">
+        <v>139675497</v>
+      </c>
+      <c r="C327" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D327" t="s">
+        <v>4</v>
+      </c>
+      <c r="E327" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A328" t="s">
+        <v>222</v>
+      </c>
+      <c r="B328">
+        <v>139675497</v>
+      </c>
+      <c r="C328" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D328" t="s">
+        <v>4</v>
+      </c>
+      <c r="E328" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A329" t="s">
+        <v>223</v>
+      </c>
+      <c r="B329">
+        <v>139675497</v>
+      </c>
+      <c r="C329" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D329" t="s">
+        <v>4</v>
+      </c>
+      <c r="E329" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A330" t="s">
+        <v>224</v>
+      </c>
+      <c r="B330">
+        <v>139675497</v>
+      </c>
+      <c r="C330" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D330" t="s">
+        <v>4</v>
+      </c>
+      <c r="E330" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A331" t="s">
+        <v>225</v>
+      </c>
+      <c r="B331">
+        <v>139675497</v>
+      </c>
+      <c r="C331" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D331" t="s">
+        <v>4</v>
+      </c>
+      <c r="E331" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A332" t="s">
+        <v>226</v>
+      </c>
+      <c r="B332">
+        <v>139675497</v>
+      </c>
+      <c r="C332" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D332" t="s">
+        <v>4</v>
+      </c>
+      <c r="E332" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A333" t="s">
+        <v>227</v>
+      </c>
+      <c r="B333">
+        <v>139675497</v>
+      </c>
+      <c r="C333" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D333" t="s">
+        <v>4</v>
+      </c>
+      <c r="E333" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A334" t="s">
+        <v>228</v>
+      </c>
+      <c r="B334">
+        <v>139675497</v>
+      </c>
+      <c r="C334" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D334" t="s">
+        <v>4</v>
+      </c>
+      <c r="E334" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A335" t="s">
+        <v>229</v>
+      </c>
+      <c r="B335">
+        <v>139675497</v>
+      </c>
+      <c r="C335" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D335" t="s">
+        <v>4</v>
+      </c>
+      <c r="E335" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A336" t="s">
+        <v>230</v>
+      </c>
+      <c r="B336">
+        <v>139675497</v>
+      </c>
+      <c r="C336" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D336" t="s">
+        <v>4</v>
+      </c>
+      <c r="E336" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A337" t="s">
+        <v>231</v>
+      </c>
+      <c r="B337">
+        <v>139675497</v>
+      </c>
+      <c r="C337" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D337" t="s">
+        <v>4</v>
+      </c>
+      <c r="E337" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A338" t="s">
+        <v>232</v>
+      </c>
+      <c r="B338">
+        <v>139675497</v>
+      </c>
+      <c r="C338" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D338" t="s">
+        <v>4</v>
+      </c>
+      <c r="E338" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A339" t="s">
+        <v>233</v>
+      </c>
+      <c r="B339">
+        <v>139675497</v>
+      </c>
+      <c r="C339" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D339" t="s">
+        <v>4</v>
+      </c>
+      <c r="E339" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A340" t="s">
+        <v>234</v>
+      </c>
+      <c r="B340">
+        <v>139675497</v>
+      </c>
+      <c r="C340" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D340" t="s">
+        <v>4</v>
+      </c>
+      <c r="E340" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A341" t="s">
+        <v>235</v>
+      </c>
+      <c r="B341">
+        <v>139675497</v>
+      </c>
+      <c r="C341" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D341" t="s">
+        <v>4</v>
+      </c>
+      <c r="E341" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A342" t="s">
+        <v>236</v>
+      </c>
+      <c r="B342">
+        <v>139675497</v>
+      </c>
+      <c r="C342" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D342" t="s">
+        <v>4</v>
+      </c>
+      <c r="E342" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A343" t="s">
+        <v>237</v>
+      </c>
+      <c r="B343">
+        <v>139675497</v>
+      </c>
+      <c r="C343" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D343" t="s">
+        <v>4</v>
+      </c>
+      <c r="E343" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A344" t="s">
+        <v>238</v>
+      </c>
+      <c r="B344">
+        <v>139675497</v>
+      </c>
+      <c r="C344" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D344" t="s">
+        <v>4</v>
+      </c>
+      <c r="E344" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A345" t="s">
+        <v>239</v>
+      </c>
+      <c r="B345">
+        <v>139675497</v>
+      </c>
+      <c r="C345" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D345" t="s">
+        <v>4</v>
+      </c>
+      <c r="E345" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A346" t="s">
+        <v>240</v>
+      </c>
+      <c r="B346">
+        <v>139675497</v>
+      </c>
+      <c r="C346" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D346" t="s">
+        <v>4</v>
+      </c>
+      <c r="E346" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A347" t="s">
+        <v>241</v>
+      </c>
+      <c r="B347">
+        <v>139675497</v>
+      </c>
+      <c r="C347" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D347" t="s">
+        <v>4</v>
+      </c>
+      <c r="E347" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A348" t="s">
+        <v>242</v>
+      </c>
+      <c r="B348">
+        <v>139675497</v>
+      </c>
+      <c r="C348" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D348" t="s">
+        <v>4</v>
+      </c>
+      <c r="E348" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A349" t="s">
+        <v>243</v>
+      </c>
+      <c r="B349">
+        <v>139675497</v>
+      </c>
+      <c r="C349" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D349" t="s">
+        <v>4</v>
+      </c>
+      <c r="E349" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A350" t="s">
+        <v>244</v>
+      </c>
+      <c r="B350">
+        <v>139675497</v>
+      </c>
+      <c r="C350" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D350" t="s">
+        <v>4</v>
+      </c>
+      <c r="E350" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A351" t="s">
+        <v>245</v>
+      </c>
+      <c r="B351">
+        <v>139675497</v>
+      </c>
+      <c r="C351" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D351" t="s">
+        <v>4</v>
+      </c>
+      <c r="E351" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A352" t="s">
+        <v>246</v>
+      </c>
+      <c r="B352">
+        <v>139675497</v>
+      </c>
+      <c r="C352" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D352" t="s">
+        <v>4</v>
+      </c>
+      <c r="E352" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A353" t="s">
+        <v>247</v>
+      </c>
+      <c r="B353">
+        <v>139675497</v>
+      </c>
+      <c r="C353" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D353" t="s">
+        <v>4</v>
+      </c>
+      <c r="E353" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A354" t="s">
+        <v>248</v>
+      </c>
+      <c r="B354">
+        <v>139675497</v>
+      </c>
+      <c r="C354" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D354" t="s">
+        <v>4</v>
+      </c>
+      <c r="E354" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A355" t="s">
+        <v>249</v>
+      </c>
+      <c r="B355">
+        <v>139675497</v>
+      </c>
+      <c r="C355" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D355" t="s">
+        <v>4</v>
+      </c>
+      <c r="E355" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A356" t="s">
+        <v>250</v>
+      </c>
+      <c r="B356">
+        <v>139675497</v>
+      </c>
+      <c r="C356" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D356" t="s">
+        <v>4</v>
+      </c>
+      <c r="E356" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A357" t="s">
+        <v>251</v>
+      </c>
+      <c r="B357">
+        <v>139675497</v>
+      </c>
+      <c r="C357" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D357" t="s">
+        <v>4</v>
+      </c>
+      <c r="E357" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A358" t="s">
+        <v>252</v>
+      </c>
+      <c r="B358">
+        <v>139675497</v>
+      </c>
+      <c r="C358" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D358" t="s">
+        <v>4</v>
+      </c>
+      <c r="E358" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A359" t="s">
+        <v>253</v>
+      </c>
+      <c r="B359">
+        <v>139675497</v>
+      </c>
+      <c r="C359" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D359" t="s">
+        <v>4</v>
+      </c>
+      <c r="E359" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A360" t="s">
+        <v>254</v>
+      </c>
+      <c r="B360">
+        <v>139675497</v>
+      </c>
+      <c r="C360" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D360" t="s">
+        <v>4</v>
+      </c>
+      <c r="E360" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A361" t="s">
+        <v>255</v>
+      </c>
+      <c r="B361">
+        <v>139675497</v>
+      </c>
+      <c r="C361" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D361" t="s">
+        <v>4</v>
+      </c>
+      <c r="E361" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A362" t="s">
+        <v>256</v>
+      </c>
+      <c r="B362">
+        <v>139675497</v>
+      </c>
+      <c r="C362" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D362" t="s">
+        <v>4</v>
+      </c>
+      <c r="E362" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A363" t="s">
+        <v>257</v>
+      </c>
+      <c r="B363">
+        <v>139675497</v>
+      </c>
+      <c r="C363" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D363" t="s">
+        <v>4</v>
+      </c>
+      <c r="E363" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A364" t="s">
+        <v>258</v>
+      </c>
+      <c r="B364">
+        <v>139675497</v>
+      </c>
+      <c r="C364" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D364" t="s">
+        <v>4</v>
+      </c>
+      <c r="E364" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A365" t="s">
+        <v>259</v>
+      </c>
+      <c r="B365">
+        <v>139675497</v>
+      </c>
+      <c r="C365" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D365" t="s">
+        <v>4</v>
+      </c>
+      <c r="E365" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A366" t="s">
+        <v>260</v>
+      </c>
+      <c r="B366">
+        <v>139675497</v>
+      </c>
+      <c r="C366" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D366" t="s">
+        <v>4</v>
+      </c>
+      <c r="E366" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A367" t="s">
+        <v>261</v>
+      </c>
+      <c r="B367">
+        <v>139675497</v>
+      </c>
+      <c r="C367" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D367" t="s">
+        <v>4</v>
+      </c>
+      <c r="E367" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A368" t="s">
+        <v>262</v>
+      </c>
+      <c r="B368">
+        <v>139675497</v>
+      </c>
+      <c r="C368" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D368" t="s">
+        <v>4</v>
+      </c>
+      <c r="E368" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A369" t="s">
+        <v>263</v>
+      </c>
+      <c r="B369">
+        <v>139675497</v>
+      </c>
+      <c r="C369" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D369" t="s">
+        <v>4</v>
+      </c>
+      <c r="E369" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A370" t="s">
+        <v>264</v>
+      </c>
+      <c r="B370">
+        <v>139675497</v>
+      </c>
+      <c r="C370" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D370" t="s">
+        <v>4</v>
+      </c>
+      <c r="E370" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A371" t="s">
+        <v>265</v>
+      </c>
+      <c r="B371">
+        <v>139675497</v>
+      </c>
+      <c r="C371" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D371" t="s">
+        <v>4</v>
+      </c>
+      <c r="E371" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A372" t="s">
+        <v>266</v>
+      </c>
+      <c r="B372">
+        <v>139675497</v>
+      </c>
+      <c r="C372" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D372" t="s">
+        <v>4</v>
+      </c>
+      <c r="E372" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A373" t="s">
+        <v>267</v>
+      </c>
+      <c r="B373">
+        <v>139675497</v>
+      </c>
+      <c r="C373" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D373" t="s">
+        <v>4</v>
+      </c>
+      <c r="E373" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A374" t="s">
+        <v>268</v>
+      </c>
+      <c r="B374">
+        <v>139675497</v>
+      </c>
+      <c r="C374" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D374" t="s">
+        <v>4</v>
+      </c>
+      <c r="E374" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A375" t="s">
+        <v>269</v>
+      </c>
+      <c r="B375">
+        <v>139675497</v>
+      </c>
+      <c r="C375" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D375" t="s">
+        <v>4</v>
+      </c>
+      <c r="E375" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A376" t="s">
+        <v>270</v>
+      </c>
+      <c r="B376">
+        <v>139675497</v>
+      </c>
+      <c r="C376" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D376" t="s">
+        <v>4</v>
+      </c>
+      <c r="E376" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A377" t="s">
+        <v>271</v>
+      </c>
+      <c r="B377">
+        <v>139675497</v>
+      </c>
+      <c r="C377" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D377" t="s">
+        <v>4</v>
+      </c>
+      <c r="E377" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A378" t="s">
+        <v>272</v>
+      </c>
+      <c r="B378">
+        <v>139675497</v>
+      </c>
+      <c r="C378" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D378" t="s">
+        <v>4</v>
+      </c>
+      <c r="E378" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A379" t="s">
+        <v>273</v>
+      </c>
+      <c r="B379">
+        <v>139675497</v>
+      </c>
+      <c r="C379" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D379" t="s">
+        <v>4</v>
+      </c>
+      <c r="E379" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A380" t="s">
+        <v>274</v>
+      </c>
+      <c r="B380">
+        <v>139675497</v>
+      </c>
+      <c r="C380" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D380" t="s">
+        <v>4</v>
+      </c>
+      <c r="E380" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A381" t="s">
+        <v>275</v>
+      </c>
+      <c r="B381">
+        <v>139675497</v>
+      </c>
+      <c r="C381" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D381" t="s">
+        <v>4</v>
+      </c>
+      <c r="E381" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A382" t="s">
+        <v>276</v>
+      </c>
+      <c r="B382">
+        <v>139675497</v>
+      </c>
+      <c r="C382" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D382" t="s">
+        <v>4</v>
+      </c>
+      <c r="E382" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A383" t="s">
+        <v>277</v>
+      </c>
+      <c r="B383">
+        <v>139675497</v>
+      </c>
+      <c r="C383" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D383" t="s">
+        <v>4</v>
+      </c>
+      <c r="E383" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A384" t="s">
+        <v>278</v>
+      </c>
+      <c r="B384">
+        <v>139675497</v>
+      </c>
+      <c r="C384" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D384" t="s">
+        <v>4</v>
+      </c>
+      <c r="E384" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A385" t="s">
+        <v>279</v>
+      </c>
+      <c r="B385">
+        <v>139675497</v>
+      </c>
+      <c r="C385" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D385" t="s">
+        <v>4</v>
+      </c>
+      <c r="E385" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A386" t="s">
+        <v>280</v>
+      </c>
+      <c r="B386">
+        <v>139675497</v>
+      </c>
+      <c r="C386" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D386" t="s">
+        <v>4</v>
+      </c>
+      <c r="E386" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A387" t="s">
+        <v>281</v>
+      </c>
+      <c r="B387">
+        <v>139675497</v>
+      </c>
+      <c r="C387" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D387" t="s">
+        <v>4</v>
+      </c>
+      <c r="E387" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A388" t="s">
+        <v>282</v>
+      </c>
+      <c r="B388">
+        <v>139675497</v>
+      </c>
+      <c r="C388" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D388" t="s">
+        <v>4</v>
+      </c>
+      <c r="E388" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A389" t="s">
+        <v>283</v>
+      </c>
+      <c r="B389">
+        <v>139675497</v>
+      </c>
+      <c r="C389" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D389" t="s">
+        <v>4</v>
+      </c>
+      <c r="E389" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A390" t="s">
+        <v>284</v>
+      </c>
+      <c r="B390">
+        <v>139675497</v>
+      </c>
+      <c r="C390" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D390" t="s">
+        <v>4</v>
+      </c>
+      <c r="E390" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A391" t="s">
+        <v>285</v>
+      </c>
+      <c r="B391">
+        <v>139675497</v>
+      </c>
+      <c r="C391" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D391" t="s">
+        <v>4</v>
+      </c>
+      <c r="E391" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A392" t="s">
+        <v>286</v>
+      </c>
+      <c r="B392">
+        <v>139675497</v>
+      </c>
+      <c r="C392" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D392" t="s">
+        <v>4</v>
+      </c>
+      <c r="E392" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A393" t="s">
+        <v>287</v>
+      </c>
+      <c r="B393">
+        <v>139675497</v>
+      </c>
+      <c r="C393" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D393" t="s">
+        <v>4</v>
+      </c>
+      <c r="E393" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A394" t="s">
+        <v>288</v>
+      </c>
+      <c r="B394">
+        <v>139675497</v>
+      </c>
+      <c r="C394" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D394" t="s">
+        <v>4</v>
+      </c>
+      <c r="E394" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A395" t="s">
+        <v>289</v>
+      </c>
+      <c r="B395">
+        <v>139675497</v>
+      </c>
+      <c r="C395" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D395" t="s">
+        <v>4</v>
+      </c>
+      <c r="E395" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A396" t="s">
+        <v>290</v>
+      </c>
+      <c r="B396">
+        <v>139675497</v>
+      </c>
+      <c r="C396" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D396" t="s">
+        <v>4</v>
+      </c>
+      <c r="E396" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A397" t="s">
+        <v>291</v>
+      </c>
+      <c r="B397">
+        <v>139675497</v>
+      </c>
+      <c r="C397" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D397" t="s">
+        <v>4</v>
+      </c>
+      <c r="E397" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A398" t="s">
+        <v>292</v>
+      </c>
+      <c r="B398">
+        <v>139675497</v>
+      </c>
+      <c r="C398" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D398" t="s">
+        <v>4</v>
+      </c>
+      <c r="E398" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A399" t="s">
+        <v>293</v>
+      </c>
+      <c r="B399">
+        <v>139675497</v>
+      </c>
+      <c r="C399" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D399" t="s">
+        <v>4</v>
+      </c>
+      <c r="E399" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A400" t="s">
+        <v>294</v>
+      </c>
+      <c r="B400">
+        <v>139675497</v>
+      </c>
+      <c r="C400" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D400" t="s">
+        <v>4</v>
+      </c>
+      <c r="E400" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A401" t="s">
+        <v>295</v>
+      </c>
+      <c r="B401">
+        <v>139675497</v>
+      </c>
+      <c r="C401" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D401" t="s">
+        <v>4</v>
+      </c>
+      <c r="E401" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A402" t="s">
+        <v>296</v>
+      </c>
+      <c r="B402">
+        <v>139675497</v>
+      </c>
+      <c r="C402" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D402" t="s">
+        <v>4</v>
+      </c>
+      <c r="E402" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A403" t="s">
+        <v>297</v>
+      </c>
+      <c r="B403">
+        <v>139675497</v>
+      </c>
+      <c r="C403" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D403" t="s">
+        <v>4</v>
+      </c>
+      <c r="E403" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A404" t="s">
+        <v>298</v>
+      </c>
+      <c r="B404">
+        <v>139675497</v>
+      </c>
+      <c r="C404" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D404" t="s">
+        <v>4</v>
+      </c>
+      <c r="E404" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A405" t="s">
+        <v>299</v>
+      </c>
+      <c r="B405">
+        <v>139675497</v>
+      </c>
+      <c r="C405" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D405" t="s">
+        <v>4</v>
+      </c>
+      <c r="E405" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A406" t="s">
+        <v>300</v>
+      </c>
+      <c r="B406">
+        <v>139675497</v>
+      </c>
+      <c r="C406" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D406" t="s">
+        <v>4</v>
+      </c>
+      <c r="E406" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A407" t="s">
+        <v>301</v>
+      </c>
+      <c r="B407">
+        <v>139675497</v>
+      </c>
+      <c r="C407" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D407" t="s">
+        <v>4</v>
+      </c>
+      <c r="E407" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A408" t="s">
+        <v>302</v>
+      </c>
+      <c r="B408">
+        <v>139675497</v>
+      </c>
+      <c r="C408" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D408" t="s">
+        <v>4</v>
+      </c>
+      <c r="E408" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A409" t="s">
+        <v>303</v>
+      </c>
+      <c r="B409">
+        <v>139675497</v>
+      </c>
+      <c r="C409" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D409" t="s">
+        <v>4</v>
+      </c>
+      <c r="E409" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A410" t="s">
+        <v>304</v>
+      </c>
+      <c r="B410">
+        <v>139675497</v>
+      </c>
+      <c r="C410" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D410" t="s">
+        <v>4</v>
+      </c>
+      <c r="E410" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A411" t="s">
+        <v>305</v>
+      </c>
+      <c r="B411">
+        <v>139675497</v>
+      </c>
+      <c r="C411" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D411" t="s">
+        <v>4</v>
+      </c>
+      <c r="E411" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A412" t="s">
+        <v>306</v>
+      </c>
+      <c r="B412">
+        <v>139675497</v>
+      </c>
+      <c r="C412" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D412" t="s">
+        <v>4</v>
+      </c>
+      <c r="E412" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A413" t="s">
+        <v>307</v>
+      </c>
+      <c r="B413">
+        <v>139675497</v>
+      </c>
+      <c r="C413" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D413" t="s">
+        <v>4</v>
+      </c>
+      <c r="E413" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A414" t="s">
+        <v>308</v>
+      </c>
+      <c r="B414">
+        <v>139675497</v>
+      </c>
+      <c r="C414" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D414" t="s">
+        <v>4</v>
+      </c>
+      <c r="E414" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A415" t="s">
+        <v>309</v>
+      </c>
+      <c r="B415">
+        <v>139675497</v>
+      </c>
+      <c r="C415" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D415" t="s">
+        <v>4</v>
+      </c>
+      <c r="E415" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A416" t="s">
+        <v>310</v>
+      </c>
+      <c r="B416">
+        <v>139675497</v>
+      </c>
+      <c r="C416" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D416" t="s">
+        <v>4</v>
+      </c>
+      <c r="E416" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A417" t="s">
+        <v>311</v>
+      </c>
+      <c r="B417">
+        <v>139675497</v>
+      </c>
+      <c r="C417" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D417" t="s">
+        <v>4</v>
+      </c>
+      <c r="E417" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A418" t="s">
+        <v>312</v>
+      </c>
+      <c r="B418">
+        <v>139675497</v>
+      </c>
+      <c r="C418" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D418" t="s">
+        <v>4</v>
+      </c>
+      <c r="E418" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A419" t="s">
+        <v>313</v>
+      </c>
+      <c r="B419">
+        <v>139675497</v>
+      </c>
+      <c r="C419" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D419" t="s">
+        <v>4</v>
+      </c>
+      <c r="E419" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A420" t="s">
+        <v>314</v>
+      </c>
+      <c r="B420">
+        <v>139675497</v>
+      </c>
+      <c r="C420" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D420" t="s">
+        <v>4</v>
+      </c>
+      <c r="E420" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A421" t="s">
+        <v>315</v>
+      </c>
+      <c r="B421">
+        <v>139675497</v>
+      </c>
+      <c r="C421" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D421" t="s">
+        <v>4</v>
+      </c>
+      <c r="E421" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A422" t="s">
+        <v>316</v>
+      </c>
+      <c r="B422">
+        <v>139675497</v>
+      </c>
+      <c r="C422" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D422" t="s">
+        <v>4</v>
+      </c>
+      <c r="E422" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A423" t="s">
+        <v>317</v>
+      </c>
+      <c r="B423">
+        <v>139675497</v>
+      </c>
+      <c r="C423" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D423" t="s">
+        <v>4</v>
+      </c>
+      <c r="E423" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A424" t="s">
+        <v>318</v>
+      </c>
+      <c r="B424">
+        <v>139675497</v>
+      </c>
+      <c r="C424" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D424" t="s">
+        <v>4</v>
+      </c>
+      <c r="E424" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A425" t="s">
+        <v>319</v>
+      </c>
+      <c r="B425">
+        <v>139675497</v>
+      </c>
+      <c r="C425" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D425" t="s">
+        <v>4</v>
+      </c>
+      <c r="E425" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A426" t="s">
+        <v>320</v>
+      </c>
+      <c r="B426">
+        <v>139675497</v>
+      </c>
+      <c r="C426" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D426" t="s">
+        <v>4</v>
+      </c>
+      <c r="E426" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A427" t="s">
+        <v>321</v>
+      </c>
+      <c r="B427">
+        <v>139675497</v>
+      </c>
+      <c r="C427" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D427" t="s">
+        <v>4</v>
+      </c>
+      <c r="E427" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A428" t="s">
+        <v>322</v>
+      </c>
+      <c r="B428">
+        <v>139675497</v>
+      </c>
+      <c r="C428" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D428" t="s">
+        <v>4</v>
+      </c>
+      <c r="E428" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A429" t="s">
+        <v>323</v>
+      </c>
+      <c r="B429">
+        <v>139675497</v>
+      </c>
+      <c r="C429" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D429" t="s">
+        <v>4</v>
+      </c>
+      <c r="E429" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A430" t="s">
+        <v>324</v>
+      </c>
+      <c r="B430">
+        <v>139675497</v>
+      </c>
+      <c r="C430" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D430" t="s">
+        <v>4</v>
+      </c>
+      <c r="E430" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A431" t="s">
+        <v>325</v>
+      </c>
+      <c r="B431">
+        <v>139675497</v>
+      </c>
+      <c r="C431" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D431" t="s">
+        <v>4</v>
+      </c>
+      <c r="E431" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A432" t="s">
+        <v>326</v>
+      </c>
+      <c r="B432">
+        <v>139675497</v>
+      </c>
+      <c r="C432" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D432" t="s">
+        <v>4</v>
+      </c>
+      <c r="E432" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A433" t="s">
+        <v>327</v>
+      </c>
+      <c r="B433">
+        <v>139675497</v>
+      </c>
+      <c r="C433" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D433" t="s">
+        <v>4</v>
+      </c>
+      <c r="E433" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A434" t="s">
+        <v>328</v>
+      </c>
+      <c r="B434">
+        <v>139675497</v>
+      </c>
+      <c r="C434" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D434" t="s">
+        <v>4</v>
+      </c>
+      <c r="E434" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A435" t="s">
+        <v>329</v>
+      </c>
+      <c r="B435">
+        <v>139675497</v>
+      </c>
+      <c r="C435" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D435" t="s">
+        <v>4</v>
+      </c>
+      <c r="E435" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A436" t="s">
+        <v>330</v>
+      </c>
+      <c r="B436">
+        <v>139675497</v>
+      </c>
+      <c r="C436" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D436" t="s">
+        <v>4</v>
+      </c>
+      <c r="E436" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A437" t="s">
+        <v>331</v>
+      </c>
+      <c r="B437">
+        <v>139675497</v>
+      </c>
+      <c r="C437" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D437" t="s">
+        <v>4</v>
+      </c>
+      <c r="E437" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A438" t="s">
+        <v>332</v>
+      </c>
+      <c r="B438">
+        <v>139675497</v>
+      </c>
+      <c r="C438" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D438" t="s">
+        <v>4</v>
+      </c>
+      <c r="E438" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A439" t="s">
+        <v>333</v>
+      </c>
+      <c r="B439">
+        <v>139675497</v>
+      </c>
+      <c r="C439" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D439" t="s">
+        <v>4</v>
+      </c>
+      <c r="E439" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A440" t="s">
+        <v>334</v>
+      </c>
+      <c r="B440">
+        <v>139675497</v>
+      </c>
+      <c r="C440" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D440" t="s">
+        <v>4</v>
+      </c>
+      <c r="E440" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A441" t="s">
+        <v>335</v>
+      </c>
+      <c r="B441">
+        <v>139675497</v>
+      </c>
+      <c r="C441" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D441" t="s">
+        <v>4</v>
+      </c>
+      <c r="E441" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A442" t="s">
+        <v>336</v>
+      </c>
+      <c r="B442">
+        <v>139675497</v>
+      </c>
+      <c r="C442" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D442" t="s">
+        <v>4</v>
+      </c>
+      <c r="E442" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A443" t="s">
+        <v>337</v>
+      </c>
+      <c r="B443">
+        <v>139675497</v>
+      </c>
+      <c r="C443" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D443" t="s">
+        <v>4</v>
+      </c>
+      <c r="E443" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A444" t="s">
+        <v>338</v>
+      </c>
+      <c r="B444">
+        <v>139675497</v>
+      </c>
+      <c r="C444" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D444" t="s">
+        <v>4</v>
+      </c>
+      <c r="E444" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A445" t="s">
+        <v>339</v>
+      </c>
+      <c r="B445">
+        <v>139675497</v>
+      </c>
+      <c r="C445" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D445" t="s">
+        <v>4</v>
+      </c>
+      <c r="E445" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A446" t="s">
+        <v>340</v>
+      </c>
+      <c r="B446">
+        <v>139675497</v>
+      </c>
+      <c r="C446" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D446" t="s">
+        <v>4</v>
+      </c>
+      <c r="E446" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A447" t="s">
+        <v>341</v>
+      </c>
+      <c r="B447">
+        <v>139675497</v>
+      </c>
+      <c r="C447" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D447" t="s">
+        <v>4</v>
+      </c>
+      <c r="E447" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A448" t="s">
+        <v>342</v>
+      </c>
+      <c r="B448">
+        <v>139675497</v>
+      </c>
+      <c r="C448" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D448" t="s">
+        <v>4</v>
+      </c>
+      <c r="E448" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A449" t="s">
+        <v>343</v>
+      </c>
+      <c r="B449">
+        <v>139675497</v>
+      </c>
+      <c r="C449" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D449" t="s">
+        <v>4</v>
+      </c>
+      <c r="E449" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A450" t="s">
+        <v>344</v>
+      </c>
+      <c r="B450">
+        <v>139675497</v>
+      </c>
+      <c r="C450" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D450" t="s">
+        <v>4</v>
+      </c>
+      <c r="E450" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A451" t="s">
+        <v>345</v>
+      </c>
+      <c r="B451">
+        <v>139675497</v>
+      </c>
+      <c r="C451" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D451" t="s">
+        <v>4</v>
+      </c>
+      <c r="E451" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A452" t="s">
+        <v>346</v>
+      </c>
+      <c r="B452">
+        <v>139675497</v>
+      </c>
+      <c r="C452" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D452" t="s">
+        <v>4</v>
+      </c>
+      <c r="E452" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A453" t="s">
+        <v>347</v>
+      </c>
+      <c r="B453">
+        <v>139675497</v>
+      </c>
+      <c r="C453" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D453" t="s">
+        <v>4</v>
+      </c>
+      <c r="E453" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A454" t="s">
+        <v>348</v>
+      </c>
+      <c r="B454">
+        <v>139675497</v>
+      </c>
+      <c r="C454" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D454" t="s">
+        <v>4</v>
+      </c>
+      <c r="E454" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A455" t="s">
+        <v>349</v>
+      </c>
+      <c r="B455">
+        <v>139675497</v>
+      </c>
+      <c r="C455" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D455" t="s">
+        <v>4</v>
+      </c>
+      <c r="E455" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A456" t="s">
+        <v>350</v>
+      </c>
+      <c r="B456">
+        <v>139675497</v>
+      </c>
+      <c r="C456" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D456" t="s">
+        <v>4</v>
+      </c>
+      <c r="E456" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A457" t="s">
+        <v>351</v>
+      </c>
+      <c r="B457">
+        <v>139675497</v>
+      </c>
+      <c r="C457" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D457" t="s">
+        <v>4</v>
+      </c>
+      <c r="E457" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A458" t="s">
+        <v>352</v>
+      </c>
+      <c r="B458">
+        <v>139675497</v>
+      </c>
+      <c r="C458" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D458" t="s">
+        <v>4</v>
+      </c>
+      <c r="E458" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A459" t="s">
+        <v>353</v>
+      </c>
+      <c r="B459">
+        <v>139675497</v>
+      </c>
+      <c r="C459" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D459" t="s">
+        <v>4</v>
+      </c>
+      <c r="E459" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A460" t="s">
+        <v>354</v>
+      </c>
+      <c r="B460">
+        <v>139675497</v>
+      </c>
+      <c r="C460" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D460" t="s">
+        <v>4</v>
+      </c>
+      <c r="E460" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A461" t="s">
+        <v>355</v>
+      </c>
+      <c r="B461">
+        <v>139675497</v>
+      </c>
+      <c r="C461" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D461" t="s">
+        <v>4</v>
+      </c>
+      <c r="E461" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A462" t="s">
+        <v>356</v>
+      </c>
+      <c r="B462">
+        <v>139675497</v>
+      </c>
+      <c r="C462" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D462" t="s">
+        <v>4</v>
+      </c>
+      <c r="E462" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A463" t="s">
+        <v>357</v>
+      </c>
+      <c r="B463">
+        <v>139675497</v>
+      </c>
+      <c r="C463" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D463" t="s">
+        <v>4</v>
+      </c>
+      <c r="E463" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A464" t="s">
+        <v>358</v>
+      </c>
+      <c r="B464">
+        <v>139675497</v>
+      </c>
+      <c r="C464" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D464" t="s">
+        <v>4</v>
+      </c>
+      <c r="E464" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A465" t="s">
+        <v>359</v>
+      </c>
+      <c r="B465">
+        <v>139675497</v>
+      </c>
+      <c r="C465" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D465" t="s">
+        <v>4</v>
+      </c>
+      <c r="E465" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A466" t="s">
+        <v>360</v>
+      </c>
+      <c r="B466">
+        <v>139675497</v>
+      </c>
+      <c r="C466" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D466" t="s">
+        <v>4</v>
+      </c>
+      <c r="E466" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="467" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A467" t="s">
+        <v>361</v>
+      </c>
+      <c r="B467">
+        <v>139675497</v>
+      </c>
+      <c r="C467" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D467" t="s">
+        <v>4</v>
+      </c>
+      <c r="E467" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A468" t="s">
+        <v>362</v>
+      </c>
+      <c r="B468">
+        <v>139675497</v>
+      </c>
+      <c r="C468" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D468" t="s">
+        <v>4</v>
+      </c>
+      <c r="E468" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A469" t="s">
+        <v>363</v>
+      </c>
+      <c r="B469">
+        <v>139675497</v>
+      </c>
+      <c r="C469" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D469" t="s">
+        <v>4</v>
+      </c>
+      <c r="E469" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A470" t="s">
+        <v>364</v>
+      </c>
+      <c r="B470">
+        <v>139675497</v>
+      </c>
+      <c r="C470" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D470" t="s">
+        <v>4</v>
+      </c>
+      <c r="E470" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="471" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A471" t="s">
+        <v>365</v>
+      </c>
+      <c r="B471">
+        <v>139675497</v>
+      </c>
+      <c r="C471" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D471" t="s">
+        <v>4</v>
+      </c>
+      <c r="E471" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="472" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A472" t="s">
+        <v>366</v>
+      </c>
+      <c r="B472">
+        <v>139675497</v>
+      </c>
+      <c r="C472" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D472" t="s">
+        <v>4</v>
+      </c>
+      <c r="E472" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A473" t="s">
+        <v>367</v>
+      </c>
+      <c r="B473">
+        <v>139675497</v>
+      </c>
+      <c r="C473" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D473" t="s">
+        <v>4</v>
+      </c>
+      <c r="E473" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="474" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A474" t="s">
+        <v>368</v>
+      </c>
+      <c r="B474">
+        <v>139675497</v>
+      </c>
+      <c r="C474" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D474" t="s">
+        <v>4</v>
+      </c>
+      <c r="E474" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
